--- a/Employee_Reports21/Mark Jayson Rosima Q0265.xlsx
+++ b/Employee_Reports21/Mark Jayson Rosima Q0265.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -884,11 +884,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -931,11 +931,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>-85</v>
+        <v>-86</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1023,11 +1023,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1059,11 +1059,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1105,11 +1105,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
